--- a/config_1.12/act_hhl_ty_config.xlsx
+++ b/config_1.12/act_hhl_ty_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27615" windowHeight="10440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27615" windowHeight="10440" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>pay_icon_gold7</t>
-  </si>
-  <si>
-    <t>低级核弹</t>
   </si>
   <si>
     <t>dhhl_icon_cjhd</t>
@@ -243,6 +240,10 @@
   </si>
   <si>
     <t>"1.活动时间：1月12日8:00-1月18日23:59:59。","2.活动期间，玩所有游戏都有几率获得星星道具，星星可用于兑换奖励，高倍场可获得更多星星哦！","3.活动结束后，所有星星将统一清除，请及时进行奖励兑换","4.实物奖励请关注公众号《彩云新世界》联系在线客服领取","5.实物图片仅供参考，请以实际发出的奖励为准",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级核弹</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -417,7 +418,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -452,7 +453,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -663,7 +664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12:F13"/>
     </sheetView>
   </sheetViews>
@@ -696,7 +697,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>4</v>
@@ -737,7 +738,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>14</v>
@@ -752,10 +753,10 @@
         <v>1610985599</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -775,7 +776,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>19</v>
@@ -790,10 +791,10 @@
         <v>1610985599</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -807,7 +808,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -846,7 +847,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>27</v>
@@ -855,7 +856,7 @@
         <v>15000</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -866,7 +867,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>28</v>
@@ -875,7 +876,7 @@
         <v>8000</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
@@ -886,7 +887,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>29</v>
@@ -895,7 +896,7 @@
         <v>5000</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -974,10 +975,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="D9" s="3">
         <v>1200</v>
@@ -1038,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="3">
         <v>15000</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -1058,7 +1059,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>28</v>
@@ -1067,7 +1068,7 @@
         <v>8000</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
@@ -1078,7 +1079,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>29</v>
@@ -1087,7 +1088,7 @@
         <v>5000</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -1115,10 +1116,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="D6" s="3">
         <v>12000</v>
@@ -1132,10 +1133,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="D7" s="3">
         <v>6000</v>
@@ -1166,10 +1167,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="D9" s="3">
         <v>1200</v>
@@ -1201,16 +1202,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
@@ -1330,16 +1331,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -1442,8 +1443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1456,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
@@ -1464,7 +1465,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1491,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
@@ -1499,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1509,6 +1510,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="2"/>
@@ -1519,27 +1540,7 @@
 </pixelators>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
@@ -1550,48 +1551,48 @@
 </sheetInterline>
 </file>
 
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>
--- a/config_1.12/act_hhl_ty_config.xlsx
+++ b/config_1.12/act_hhl_ty_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1432,7 +1432,7 @@
         <v>110</v>
       </c>
       <c r="C9" s="2">
-        <v>7490</v>
+        <v>7500</v>
       </c>
     </row>
   </sheetData>
@@ -1514,6 +1514,22 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
@@ -1524,27 +1540,7 @@
 </sheetInterline>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="2"/>
@@ -1555,48 +1551,52 @@
 </pixelators>
 </file>
 
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>
--- a/config_1.12/act_hhl_ty_config.xlsx
+++ b/config_1.12/act_hhl_ty_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27615" windowHeight="10440" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27615" windowHeight="10440" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -1193,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1308,7 +1308,7 @@
         <v>110</v>
       </c>
       <c r="C9" s="2">
-        <v>7500</v>
+        <v>7490</v>
       </c>
     </row>
   </sheetData>
@@ -1321,7 +1321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1432,7 +1432,7 @@
         <v>110</v>
       </c>
       <c r="C9" s="2">
-        <v>7500</v>
+        <v>7490</v>
       </c>
     </row>
   </sheetData>
@@ -1514,12 +1514,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
   <rangeList sheetStid="1" master=""/>
   <rangeList sheetStid="2" master=""/>
@@ -1529,7 +1523,38 @@
 </allowEditUser>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
@@ -1540,63 +1565,38 @@
 </sheetInterline>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>
--- a/config_1.12/act_hhl_ty_config.xlsx
+++ b/config_1.12/act_hhl_ty_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27615" windowHeight="10440" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27615" windowHeight="10440" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -149,6 +149,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -159,6 +160,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -262,11 +264,13 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1190,7 +1194,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1220,8 +1224,8 @@
       <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
-        <v>1000159</v>
+      <c r="A2" s="10">
+        <v>1000190</v>
       </c>
       <c r="B2" s="2">
         <v>2</v>
@@ -1231,8 +1235,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>1000160</v>
+      <c r="A3" s="10">
+        <v>1000191</v>
       </c>
       <c r="B3" s="2">
         <v>3</v>
@@ -1242,8 +1246,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>1000161</v>
+      <c r="A4" s="10">
+        <v>1000192</v>
       </c>
       <c r="B4" s="2">
         <v>4</v>
@@ -1253,8 +1257,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>1000162</v>
+      <c r="A5" s="10">
+        <v>1000193</v>
       </c>
       <c r="B5" s="2">
         <v>5</v>
@@ -1264,8 +1268,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>1000163</v>
+      <c r="A6" s="10">
+        <v>1000194</v>
       </c>
       <c r="B6" s="2">
         <v>111</v>
@@ -1275,8 +1279,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <v>1000164</v>
+      <c r="A7" s="10">
+        <v>1000195</v>
       </c>
       <c r="B7" s="2">
         <v>6</v>
@@ -1286,8 +1290,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>1000165</v>
+      <c r="A8" s="10">
+        <v>1000196</v>
       </c>
       <c r="B8" s="2">
         <v>108</v>
@@ -1297,8 +1301,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>1000166</v>
+      <c r="A9" s="10">
+        <v>1000197</v>
       </c>
       <c r="B9" s="2">
         <v>110</v>
@@ -1317,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1345,7 +1349,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="10">
-        <v>1000189</v>
+        <v>1000190</v>
       </c>
       <c r="B2" s="2">
         <v>2</v>
@@ -1356,7 +1360,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
-        <v>1000190</v>
+        <v>1000191</v>
       </c>
       <c r="B3" s="2">
         <v>3</v>
@@ -1367,7 +1371,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
-        <v>1000191</v>
+        <v>1000192</v>
       </c>
       <c r="B4" s="2">
         <v>4</v>
@@ -1378,7 +1382,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
-        <v>1000192</v>
+        <v>1000193</v>
       </c>
       <c r="B5" s="2">
         <v>5</v>
@@ -1389,7 +1393,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
-        <v>1000193</v>
+        <v>1000194</v>
       </c>
       <c r="B6" s="2">
         <v>111</v>
@@ -1400,7 +1404,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
-        <v>1000194</v>
+        <v>1000195</v>
       </c>
       <c r="B7" s="2">
         <v>6</v>
@@ -1411,7 +1415,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
-        <v>1000195</v>
+        <v>1000196</v>
       </c>
       <c r="B8" s="2">
         <v>108</v>
@@ -1422,7 +1426,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
-        <v>1000196</v>
+        <v>1000197</v>
       </c>
       <c r="B9" s="2">
         <v>110</v>
@@ -1443,7 +1447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -1510,6 +1514,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -1519,17 +1540,11 @@
 </settings>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="2"/>
@@ -1540,59 +1555,48 @@
 </pixelators>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>